--- a/trunk/BaoCaoNhom/Weekly_report_Crazy.xlsx
+++ b/trunk/BaoCaoNhom/Weekly_report_Crazy.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19440" windowHeight="9405"/>
+    <workbookView xWindow="390" yWindow="615" windowWidth="19440" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -334,7 +334,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t>Project</t>
   </si>
@@ -436,15 +436,100 @@
   </si>
   <si>
     <t>Crazy</t>
+  </si>
+  <si>
+    <t>viết SRS ở các phần chung của nhóm (Mục đích tài liệu SRS, Yêu cầu môi trường hệ thống, Phát triển hệ thống, Định nghĩa các requirements)</t>
+  </si>
+  <si>
+    <t>1 phần SRS</t>
+  </si>
+  <si>
+    <t>90%, còn phải bổ sung các phần: Bảng viết tắt, Non-fuction requirements và detail non-function requirements</t>
+  </si>
+  <si>
+    <t>Viết SRS cho các function của cá nhân (bao gồm usecase và requirements của các chức năng: FAQ, Rule, Tìm kiếm sách, đăng ký mượn sách và hủy mượn sách)</t>
+  </si>
+  <si>
+    <t>Tổng hợp các phần của SRS thành báo cáo nhóm, gửi bài nộp lên sakai</t>
+  </si>
+  <si>
+    <t>SRS version 1.0</t>
+  </si>
+  <si>
+    <t>Hoàn chỉnh SRS cùng nhóm</t>
+  </si>
+  <si>
+    <t>SRS final</t>
+  </si>
+  <si>
+    <t>Viết SRS cho 4 chức năng Login/Logout, Register, Multlanguage và Profile</t>
+  </si>
+  <si>
+    <t>Hoàn thành</t>
+  </si>
+  <si>
+    <t>Chụp hình usecase minh chứng cho 4 chức năng</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Quân</t>
+  </si>
+  <si>
+    <t>Đinh Trần Thái Sơn</t>
+  </si>
+  <si>
+    <t>Thiết lập SVN</t>
+  </si>
+  <si>
+    <t>Hoàn thành.</t>
+  </si>
+  <si>
+    <t>Vẽ lược đồ use case cho các chức năng: "Admin có thể xem thông tin mượn trả sách" và "Admin có thể xem thống kê về hoạt động mượn trả sách trong tuần/tháng"</t>
+  </si>
+  <si>
+    <t>Hoàn thành: xem lại lý thuyết về use case, cách vẽ; tham khảo các lược đồ của các thành viên khác trong nhóm để cách vẽ được đồng bộ.</t>
+  </si>
+  <si>
+    <t>Chỉnh lại một số chi tiết trong SRS</t>
+  </si>
+  <si>
+    <t>Hoàn thành: chỉnh "Admin" thành "Thủ thư" ở các chức năng 9 và 10.</t>
+  </si>
+  <si>
+    <t>Phạm Minh Thành</t>
+  </si>
+  <si>
+    <t>Viết SRS cho chức năng Send Mail và Thông tin mượn trả sách của người dùng</t>
+  </si>
+  <si>
+    <t>Chụp hình usecase minh chứng cho các chức năng trên</t>
+  </si>
+  <si>
+    <t>Đặng Ngọc Vũ</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Tổng hợp SRS version 1</t>
+  </si>
+  <si>
+    <t>SRS version 1</t>
+  </si>
+  <si>
+    <t>Tổng hợp report hàng tuần của nhóm</t>
+  </si>
+  <si>
+    <t>Report tuần 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -588,7 +673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -615,6 +700,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3440,20 +3552,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="14" customWidth="1"/>
     <col min="2" max="3" width="16.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="6.25" style="3" customWidth="1"/>
     <col min="12" max="12" width="6" style="3" customWidth="1"/>
     <col min="13" max="13" width="5.875" style="3" customWidth="1"/>
@@ -3465,7 +3577,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3529,7 +3641,7 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3554,7 +3666,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>27</v>
@@ -3569,61 +3681,117 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+    <row r="4" spans="1:30" ht="128.25">
+      <c r="A4" s="16">
+        <v>41171</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10">
+        <v>3</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:30">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+    <row r="5" spans="1:30" ht="142.5">
+      <c r="A5" s="16">
+        <v>41172</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="10">
+        <v>4</v>
+      </c>
+      <c r="F5" s="10">
+        <v>4</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+    <row r="6" spans="1:30" ht="57">
+      <c r="A6" s="12">
+        <v>41173</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.5</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+    <row r="7" spans="1:30" ht="28.5">
+      <c r="A7" s="9">
+        <v>41173</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="10">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -3643,143 +3811,261 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
     </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+    <row r="8" spans="1:30" ht="57">
+      <c r="A8" s="16">
+        <v>41173</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.5</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+    <row r="9" spans="1:30" ht="71.25">
+      <c r="A9" s="16">
+        <v>41173</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10">
+        <v>3</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+    <row r="10" spans="1:30" ht="57">
+      <c r="A10" s="16">
+        <v>41173</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+    <row r="11" spans="1:30" ht="57">
+      <c r="A11" s="16">
+        <v>41173</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.5</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+    <row r="12" spans="1:30" ht="71.25">
+      <c r="A12" s="16">
+        <v>41173</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.5</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+    <row r="13" spans="1:30" ht="57">
+      <c r="A13" s="12">
+        <v>41173</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.5</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+    <row r="14" spans="1:30" ht="28.5">
+      <c r="A14" s="9">
+        <v>41173</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.5</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+    <row r="15" spans="1:30" ht="28.5">
+      <c r="A15" s="9">
+        <v>41173</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10">
+        <v>2</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+    <row r="16" spans="1:30" ht="42.75">
+      <c r="A16" s="16">
+        <v>41176</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10">
+        <v>8</v>
+      </c>
+      <c r="F16" s="10"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="7"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -3794,7 +4080,7 @@
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="7"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3809,7 +4095,7 @@
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="7"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3824,7 +4110,7 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="7"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3839,7 +4125,7 @@
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="7"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3854,7 +4140,7 @@
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="7"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3869,7 +4155,7 @@
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="7"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -3884,7 +4170,7 @@
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="7"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -3899,6 +4185,10 @@
       <c r="M24" s="7"/>
     </row>
   </sheetData>
+  <sortState ref="A4:I16">
+    <sortCondition ref="A4:A16"/>
+    <sortCondition ref="I4:I16"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="G1:H1"/>
   </mergeCells>

--- a/trunk/BaoCaoNhom/Weekly_report_Crazy.xlsx
+++ b/trunk/BaoCaoNhom/Weekly_report_Crazy.xlsx
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="89">
   <si>
     <t>Project</t>
   </si>
@@ -407,9 +407,6 @@
   </si>
   <si>
     <t>1 phần SRS</t>
-  </si>
-  <si>
-    <t>90%, còn phải bổ sung các phần: Bảng viết tắt, Non-fuction requirements và detail non-function requirements</t>
   </si>
   <si>
     <t>Viết SRS cho các function của cá nhân (bao gồm usecase và requirements của các chức năng: FAQ, Rule, Tìm kiếm sách, đăng ký mượn sách và hủy mượn sách)</t>
@@ -569,6 +566,12 @@
   </si>
   <si>
     <t>Xong</t>
+  </si>
+  <si>
+    <t>30/10/2012</t>
+  </si>
+  <si>
+    <t>Hiện thực</t>
   </si>
 </sst>
 </file>
@@ -3658,10 +3661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ49"/>
+  <dimension ref="A1:AMD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5650,7 +5653,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
@@ -6619,13 +6622,13 @@
         <v>41099</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="E4" s="8">
         <v>3</v>
@@ -6635,7 +6638,7 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -7610,7 +7613,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="E5" s="8">
         <v>3</v>
@@ -7620,7 +7623,7 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -8589,13 +8592,13 @@
         <v>41172</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="8">
         <v>4</v>
@@ -8605,7 +8608,7 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
@@ -9574,13 +9577,13 @@
         <v>41173</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="8">
         <v>0.5</v>
@@ -9590,7 +9593,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -10559,13 +10562,13 @@
         <v>41173</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="8">
         <v>3</v>
@@ -10575,7 +10578,7 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
@@ -11544,13 +11547,13 @@
         <v>41173</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="8">
         <v>0.5</v>
@@ -11560,7 +11563,7 @@
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -12529,13 +12532,13 @@
         <v>41173</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="8">
         <v>3</v>
@@ -12545,7 +12548,7 @@
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -13514,13 +13517,13 @@
         <v>41173</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
@@ -13530,7 +13533,7 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -14499,13 +14502,13 @@
         <v>41173</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="D12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="8">
         <v>0.5</v>
@@ -14515,7 +14518,7 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -15484,10 +15487,10 @@
         <v>41173</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8">
@@ -15498,7 +15501,7 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -16467,13 +16470,13 @@
         <v>41173</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="8">
         <v>0.5</v>
@@ -16483,7 +16486,7 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -17452,11 +17455,11 @@
         <v>41173</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="8">
         <v>0.5</v>
@@ -17466,7 +17469,7 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -18435,13 +18438,13 @@
         <v>41173</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="8">
         <v>2</v>
@@ -18451,7 +18454,7 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
@@ -19415,18 +19418,18 @@
       <c r="AKF16" s="15"/>
       <c r="AKG16" s="15"/>
     </row>
-    <row r="17" spans="1:1024" s="16" customFormat="1" ht="42.75">
+    <row r="17" spans="1:1018" s="16" customFormat="1" ht="42.75">
       <c r="A17" s="27">
         <v>41173</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="7">
         <v>3</v>
@@ -19436,7 +19439,7 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
@@ -20400,18 +20403,18 @@
       <c r="AKF17" s="15"/>
       <c r="AKG17" s="15"/>
     </row>
-    <row r="18" spans="1:1024" s="16" customFormat="1">
+    <row r="18" spans="1:1018" s="16" customFormat="1">
       <c r="A18" s="28">
         <v>41176</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="D18" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="8">
         <v>8</v>
@@ -20421,7 +20424,7 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
@@ -21385,18 +21388,18 @@
       <c r="AKF18" s="15"/>
       <c r="AKG18" s="15"/>
     </row>
-    <row r="19" spans="1:1024" s="16" customFormat="1" ht="28.5">
+    <row r="19" spans="1:1018" s="16" customFormat="1" ht="28.5">
       <c r="A19" s="27">
         <v>41180</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="D19" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="7">
         <v>3</v>
@@ -21406,7 +21409,7 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
@@ -22370,18 +22373,18 @@
       <c r="AKF19" s="15"/>
       <c r="AKG19" s="15"/>
     </row>
-    <row r="20" spans="1:1024" s="16" customFormat="1" ht="42.75">
+    <row r="20" spans="1:1018" s="16" customFormat="1" ht="42.75">
       <c r="A20" s="27">
         <v>41190</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="7">
         <v>5</v>
@@ -22389,7 +22392,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
@@ -23353,15 +23356,15 @@
       <c r="AKF20" s="15"/>
       <c r="AKG20" s="15"/>
     </row>
-    <row r="21" spans="1:1024" s="31" customFormat="1">
+    <row r="21" spans="1:1018" s="31" customFormat="1">
       <c r="A21" s="29">
         <v>40918</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8">
@@ -23372,12 +23375,12 @@
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
       <c r="O21" s="30"/>
@@ -24384,22 +24387,16 @@
       <c r="AMB21" s="30"/>
       <c r="AMC21" s="30"/>
       <c r="AMD21" s="30"/>
-      <c r="AME21" s="30"/>
-      <c r="AMF21" s="30"/>
-      <c r="AMG21" s="30"/>
-      <c r="AMH21" s="30"/>
-      <c r="AMI21" s="30"/>
-      <c r="AMJ21" s="30"/>
     </row>
-    <row r="22" spans="1:1024" s="31" customFormat="1">
+    <row r="22" spans="1:1018" s="31" customFormat="1">
       <c r="A22" s="29">
         <v>40918</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8">
@@ -24410,12 +24407,12 @@
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
       <c r="O22" s="30"/>
@@ -25422,25 +25419,19 @@
       <c r="AMB22" s="30"/>
       <c r="AMC22" s="30"/>
       <c r="AMD22" s="30"/>
-      <c r="AME22" s="30"/>
-      <c r="AMF22" s="30"/>
-      <c r="AMG22" s="30"/>
-      <c r="AMH22" s="30"/>
-      <c r="AMI22" s="30"/>
-      <c r="AMJ22" s="30"/>
     </row>
-    <row r="23" spans="1:1024" s="31" customFormat="1">
+    <row r="23" spans="1:1018" s="31" customFormat="1">
       <c r="A23" s="32">
         <v>41180</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="8">
         <v>0.5</v>
@@ -25450,12 +25441,12 @@
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
       <c r="M23" s="30"/>
       <c r="N23" s="30"/>
       <c r="O23" s="30"/>
@@ -26462,25 +26453,19 @@
       <c r="AMB23" s="30"/>
       <c r="AMC23" s="30"/>
       <c r="AMD23" s="30"/>
-      <c r="AME23" s="30"/>
-      <c r="AMF23" s="30"/>
-      <c r="AMG23" s="30"/>
-      <c r="AMH23" s="30"/>
-      <c r="AMI23" s="30"/>
-      <c r="AMJ23" s="30"/>
     </row>
-    <row r="24" spans="1:1024" s="31" customFormat="1" ht="28.5">
+    <row r="24" spans="1:1018" s="31" customFormat="1" ht="28.5">
       <c r="A24" s="32">
         <v>41185</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" s="8">
         <v>3</v>
@@ -26490,12 +26475,12 @@
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
       <c r="M24" s="30"/>
       <c r="N24" s="30"/>
       <c r="O24" s="30"/>
@@ -27502,25 +27487,19 @@
       <c r="AMB24" s="30"/>
       <c r="AMC24" s="30"/>
       <c r="AMD24" s="30"/>
-      <c r="AME24" s="30"/>
-      <c r="AMF24" s="30"/>
-      <c r="AMG24" s="30"/>
-      <c r="AMH24" s="30"/>
-      <c r="AMI24" s="30"/>
-      <c r="AMJ24" s="30"/>
     </row>
-    <row r="25" spans="1:1024" s="31" customFormat="1" ht="28.5">
+    <row r="25" spans="1:1018" s="31" customFormat="1" ht="28.5">
       <c r="A25" s="32">
         <v>41186</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="8">
         <v>3</v>
@@ -27530,12 +27509,12 @@
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
       <c r="O25" s="30"/>
@@ -28542,25 +28521,19 @@
       <c r="AMB25" s="30"/>
       <c r="AMC25" s="30"/>
       <c r="AMD25" s="30"/>
-      <c r="AME25" s="30"/>
-      <c r="AMF25" s="30"/>
-      <c r="AMG25" s="30"/>
-      <c r="AMH25" s="30"/>
-      <c r="AMI25" s="30"/>
-      <c r="AMJ25" s="30"/>
     </row>
-    <row r="26" spans="1:1024" s="31" customFormat="1">
+    <row r="26" spans="1:1018" s="31" customFormat="1">
       <c r="A26" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="8">
         <v>2</v>
@@ -28570,15 +28543,15 @@
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
       <c r="P26" s="34"/>
       <c r="Q26" s="34"/>
       <c r="R26" s="34"/>
@@ -28587,12 +28560,12 @@
       <c r="U26" s="34"/>
       <c r="V26" s="34"/>
       <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
       <c r="AD26" s="30"/>
       <c r="AE26" s="30"/>
       <c r="AF26" s="30"/>
@@ -29582,25 +29555,19 @@
       <c r="AMB26" s="30"/>
       <c r="AMC26" s="30"/>
       <c r="AMD26" s="30"/>
-      <c r="AME26" s="30"/>
-      <c r="AMF26" s="30"/>
-      <c r="AMG26" s="30"/>
-      <c r="AMH26" s="30"/>
-      <c r="AMI26" s="30"/>
-      <c r="AMJ26" s="30"/>
     </row>
-    <row r="27" spans="1:1024" s="31" customFormat="1">
+    <row r="27" spans="1:1018" s="31" customFormat="1">
       <c r="A27" s="29">
         <v>40918</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="D27" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="8">
         <v>4</v>
@@ -29610,12 +29577,12 @@
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
       <c r="O27" s="30"/>
@@ -30622,25 +30589,19 @@
       <c r="AMB27" s="30"/>
       <c r="AMC27" s="30"/>
       <c r="AMD27" s="30"/>
-      <c r="AME27" s="30"/>
-      <c r="AMF27" s="30"/>
-      <c r="AMG27" s="30"/>
-      <c r="AMH27" s="30"/>
-      <c r="AMI27" s="30"/>
-      <c r="AMJ27" s="30"/>
     </row>
-    <row r="28" spans="1:1024" s="16" customFormat="1">
+    <row r="28" spans="1:1018" s="16" customFormat="1">
       <c r="A28" s="27">
         <v>40918</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="7">
         <v>4</v>
@@ -30648,7 +30609,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
@@ -31605,36 +31566,32 @@
       <c r="AJY28" s="15"/>
       <c r="AJZ28" s="15"/>
       <c r="AKA28" s="15"/>
-      <c r="AKB28" s="15"/>
-      <c r="AKC28" s="15"/>
-      <c r="AKD28" s="15"/>
-      <c r="AKE28" s="15"/>
-      <c r="AKF28" s="15"/>
-      <c r="AKG28" s="15"/>
     </row>
-    <row r="29" spans="1:1024" s="31" customFormat="1">
+    <row r="29" spans="1:1018" s="31" customFormat="1">
       <c r="A29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>84</v>
+      <c r="D29" s="8" t="s">
+        <v>86</v>
       </c>
-      <c r="D29" s="8"/>
       <c r="E29" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="30"/>
       <c r="N29" s="30"/>
       <c r="O29" s="30"/>
@@ -32641,16 +32598,14 @@
       <c r="AMB29" s="30"/>
       <c r="AMC29" s="30"/>
       <c r="AMD29" s="30"/>
-      <c r="AME29" s="30"/>
-      <c r="AMF29" s="30"/>
-      <c r="AMG29" s="30"/>
-      <c r="AMH29" s="30"/>
-      <c r="AMI29" s="30"/>
-      <c r="AMJ29" s="30"/>
     </row>
-    <row r="30" spans="1:1024" s="16" customFormat="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="7"/>
+    <row r="30" spans="1:1018" s="16" customFormat="1">
+      <c r="A30" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -33619,7 +33574,7 @@
       <c r="AKF30" s="15"/>
       <c r="AKG30" s="15"/>
     </row>
-    <row r="31" spans="1:1024" s="16" customFormat="1">
+    <row r="31" spans="1:1018" s="16" customFormat="1">
       <c r="A31" s="27"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -34590,7 +34545,7 @@
       <c r="AKF31" s="15"/>
       <c r="AKG31" s="15"/>
     </row>
-    <row r="32" spans="1:1024" s="16" customFormat="1">
+    <row r="32" spans="1:1018" s="16" customFormat="1">
       <c r="A32" s="27"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
